--- a/Homework/Seminar06/home.xlsx
+++ b/Homework/Seminar06/home.xlsx
@@ -492,16 +492,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+    <row r="1" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -511,30 +510,30 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2">
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1"/>
+      <c r="C2">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2">
+      <c r="F2" s="1"/>
+      <c r="G2">
         <v>14</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>15</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="2">
         <v>16</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="R2" s="1"/>
+      <c r="K2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -543,322 +542,322 @@
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3">
+      <c r="AA2" s="1"/>
+    </row>
+    <row r="3" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+      <c r="C3">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>11</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3">
+      <c r="F3" s="1"/>
+      <c r="G3">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>14</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>15</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4">
+      <c r="K3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4">
+      <c r="F4" s="1"/>
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>14</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="V4">
+      <c r="K4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="W4">
         <v>4</v>
       </c>
-      <c r="X4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AI4" t="s">
+      <c r="Y4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AJ4" t="s">
         <v>26</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5">
+    <row r="5" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>13</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>14</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="U5">
+      <c r="K5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="V5">
         <v>4</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>3</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>4</v>
       </c>
-      <c r="X5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6">
+      <c r="Y5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>9</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>10</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>11</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>12</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>13</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
-      <c r="V6">
-        <v>2</v>
-      </c>
+      <c r="V6" s="1"/>
       <c r="W6">
+        <v>2</v>
+      </c>
+      <c r="X6">
         <v>3</v>
       </c>
-      <c r="X6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2">
+      <c r="Y6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>7</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>8</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="T7">
+      <c r="K7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="U7">
         <v>3</v>
       </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
       <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
         <v>1</v>
       </c>
-      <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AK7">
+      <c r="Y7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AL7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2">
+    <row r="8" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8">
+      <c r="E8" s="1"/>
+      <c r="F8">
         <v>9</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>10</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>11</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>12</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>13</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8">
+      <c r="K8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8">
         <v>3</v>
       </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
       <c r="U8">
+        <v>2</v>
+      </c>
+      <c r="V8">
         <v>1</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>0</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1</v>
       </c>
-      <c r="X8">
-        <v>2</v>
-      </c>
       <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
         <v>3</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AD8" s="6"/>
+      <c r="AA8" s="1"/>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6"/>
       <c r="AH8" s="6"/>
       <c r="AI8" s="6"/>
       <c r="AJ8" s="6"/>
-      <c r="AK8" s="6" t="s">
+      <c r="AK8" s="6"/>
+      <c r="AL8" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2">
+    <row r="9" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9">
+      <c r="E9" s="1"/>
+      <c r="F9">
         <v>10</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>11</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>12</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>13</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>14</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="T9">
+      <c r="K9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="U9">
         <v>3</v>
       </c>
-      <c r="U9">
-        <v>2</v>
-      </c>
       <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
         <v>1</v>
       </c>
-      <c r="W9">
-        <v>2</v>
-      </c>
       <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
         <v>3</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AD9" s="6"/>
+      <c r="AA9" s="1"/>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="6"/>
-      <c r="AK9" s="6" t="s">
+      <c r="AK9" s="6"/>
+      <c r="AL9" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2">
-        <v>2</v>
-      </c>
-      <c r="C10">
+    <row r="10" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10">
+      <c r="E10" s="1"/>
+      <c r="F10">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>12</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>13</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>14</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>15</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -867,54 +866,54 @@
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
-      <c r="AD10" s="6"/>
+      <c r="AA10" s="1"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="6"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="6"/>
-      <c r="AK10" s="6" t="s">
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2">
+    <row r="11" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11">
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11">
         <v>12</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>13</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>14</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>15</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="AD11" s="6"/>
+      <c r="K11" s="1"/>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
-      <c r="AG11" s="6" t="s">
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AH11" s="6"/>
       <c r="AI11" s="6"/>
       <c r="AJ11" s="6"/>
-      <c r="AK11" s="6" t="s">
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -924,273 +923,286 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="AD12" s="6"/>
+      <c r="K12" s="1"/>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
-      <c r="AG12" s="6" t="s">
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AH12" s="6" t="s">
+      <c r="AI12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AI12" s="6"/>
       <c r="AJ12" s="6"/>
-      <c r="AK12" s="6" t="s">
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD13" s="6"/>
+    <row r="13" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
-      <c r="AG13" s="6" t="s">
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="6"/>
+      <c r="AI13" s="7"/>
       <c r="AJ13" s="6"/>
       <c r="AK13" s="6"/>
-    </row>
-    <row r="14" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AD14" s="6"/>
+      <c r="AL13" s="6"/>
+    </row>
+    <row r="14" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="7"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
-      <c r="AN14" s="2"/>
-    </row>
-    <row r="15" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="P15" s="3" t="s">
+      <c r="AL14" s="6"/>
+      <c r="AO14" s="2"/>
+    </row>
+    <row r="15" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="S15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>24</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>25</v>
       </c>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="8"/>
+      <c r="AD15" s="5"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
       <c r="AG15" s="8"/>
-      <c r="AH15" s="6"/>
+      <c r="AH15" s="8"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6"/>
       <c r="AK15" s="6"/>
-      <c r="AN15" s="2"/>
-    </row>
-    <row r="16" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J16">
-        <v>2</v>
-      </c>
+      <c r="AL15" s="6"/>
+      <c r="AO15" s="2"/>
+    </row>
+    <row r="16" spans="2:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
         <v>1</v>
       </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="P16" s="3" t="s">
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="T16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>12</v>
       </c>
-      <c r="AA16">
-        <v>2</v>
-      </c>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="8"/>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AD16" s="5"/>
       <c r="AE16" s="8"/>
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
-      <c r="AI16" s="6"/>
+      <c r="AI16" s="8"/>
       <c r="AJ16" s="6"/>
       <c r="AK16" s="6"/>
-    </row>
-    <row r="17" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2</v>
-      </c>
+      <c r="AL16" s="6"/>
+    </row>
+    <row r="17" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="P17" s="3" t="s">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="R17" s="4" t="s">
+      <c r="S17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S17" s="3" t="s">
+      <c r="T17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>11</v>
       </c>
-      <c r="AA17">
-        <v>2</v>
-      </c>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="8"/>
+      <c r="AB17">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="5"/>
       <c r="AE17" s="8"/>
       <c r="AF17" s="8"/>
-      <c r="AG17" s="6"/>
+      <c r="AG17" s="8"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="6"/>
       <c r="AK17" s="6"/>
-    </row>
-    <row r="18" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P18" s="3" t="s">
+      <c r="AL17" s="6"/>
+    </row>
+    <row r="18" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="T18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="8"/>
-      <c r="AF18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="8"/>
       <c r="AG18" s="6"/>
       <c r="AH18" s="6"/>
       <c r="AI18" s="6"/>
       <c r="AJ18" s="6"/>
       <c r="AK18" s="6"/>
-    </row>
-    <row r="19" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="AD19" s="6"/>
+      <c r="AL18" s="6"/>
+    </row>
+    <row r="19" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>9</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <v>13</v>
+      </c>
+      <c r="P19">
+        <v>14</v>
+      </c>
+      <c r="Q19">
+        <v>15</v>
+      </c>
+      <c r="R19">
+        <v>16</v>
+      </c>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
       <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
+      <c r="AF19" s="8"/>
       <c r="AG19" s="6"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="6"/>
       <c r="AK19" s="6"/>
-    </row>
-    <row r="20" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20">
-        <v>49</v>
-      </c>
-      <c r="C20" s="2">
-        <v>48</v>
-      </c>
-      <c r="D20" s="2">
-        <v>47</v>
-      </c>
-      <c r="E20" s="2">
-        <v>46</v>
-      </c>
-      <c r="F20" s="2">
-        <v>45</v>
-      </c>
-      <c r="G20" s="2">
-        <v>44</v>
-      </c>
-      <c r="H20" s="2">
-        <v>43</v>
-      </c>
-      <c r="I20" s="2">
-        <v>42</v>
-      </c>
-      <c r="J20" s="2">
-        <v>41</v>
-      </c>
+      <c r="AL19" s="6"/>
+    </row>
+    <row r="20" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20">
-        <v>39</v>
-      </c>
-      <c r="M20">
-        <v>38</v>
-      </c>
-      <c r="N20">
-        <v>37</v>
-      </c>
-      <c r="O20">
-        <v>38</v>
-      </c>
-      <c r="P20" s="5">
-        <v>39</v>
-      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-      <c r="AD20" s="6"/>
+      <c r="R20" s="1"/>
       <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="6"/>
@@ -1198,54 +1210,57 @@
       <c r="AI20" s="6"/>
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
-    </row>
-    <row r="21" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2">
+      <c r="AL20" s="6"/>
+    </row>
+    <row r="21" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21">
         <v>49</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>48</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>47</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>46</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>45</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21">
+      <c r="H21" s="2">
+        <v>44</v>
+      </c>
+      <c r="I21" s="2">
+        <v>43</v>
+      </c>
+      <c r="J21" s="2">
+        <v>42</v>
+      </c>
+      <c r="K21" s="2">
         <v>41</v>
       </c>
-      <c r="J21" s="2">
-        <v>40</v>
-      </c>
-      <c r="K21" s="2">
+      <c r="L21" s="1"/>
+      <c r="M21">
         <v>39</v>
       </c>
-      <c r="L21" s="2">
+      <c r="N21">
         <v>38</v>
-      </c>
-      <c r="M21" s="2">
-        <v>37</v>
-      </c>
-      <c r="N21" s="2">
-        <v>36</v>
       </c>
       <c r="O21">
         <v>37</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21">
         <v>38</v>
       </c>
-      <c r="Q21" s="1"/>
-      <c r="AD21" s="6"/>
+      <c r="Q21" s="5">
+        <v>39</v>
+      </c>
+      <c r="R21" s="1"/>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="6"/>
@@ -1253,36 +1268,57 @@
       <c r="AI21" s="6"/>
       <c r="AJ21" s="6"/>
       <c r="AK21" s="6"/>
-    </row>
-    <row r="22" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="AL21" s="6"/>
+    </row>
+    <row r="22" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="C22">
+        <v>50</v>
+      </c>
+      <c r="D22" s="2">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>48</v>
+      </c>
+      <c r="F22">
+        <v>47</v>
+      </c>
+      <c r="G22">
+        <v>46</v>
+      </c>
+      <c r="H22">
+        <v>45</v>
+      </c>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22">
+      <c r="J22">
+        <v>41</v>
+      </c>
+      <c r="K22" s="2">
+        <v>40</v>
+      </c>
+      <c r="L22" s="2">
+        <v>39</v>
+      </c>
+      <c r="M22" s="2">
+        <v>38</v>
+      </c>
+      <c r="N22" s="2">
         <v>37</v>
       </c>
-      <c r="M22">
+      <c r="O22" s="2">
         <v>36</v>
       </c>
-      <c r="N22" s="2">
-        <v>35</v>
-      </c>
-      <c r="O22">
-        <v>36</v>
-      </c>
-      <c r="P22" s="5">
+      <c r="P22">
         <v>37</v>
       </c>
-      <c r="Q22" s="1"/>
-      <c r="AD22" s="6"/>
+      <c r="Q22" s="5">
+        <v>38</v>
+      </c>
+      <c r="R22" s="1"/>
       <c r="AE22" s="6"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="6"/>
@@ -1290,54 +1326,39 @@
       <c r="AI22" s="6"/>
       <c r="AJ22" s="6"/>
       <c r="AK22" s="6"/>
-    </row>
-    <row r="23" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5">
-        <v>10</v>
-      </c>
-      <c r="C23" s="5">
-        <v>11</v>
-      </c>
-      <c r="D23" s="5">
-        <v>12</v>
-      </c>
-      <c r="E23" s="5">
-        <v>13</v>
-      </c>
-      <c r="F23" s="5">
-        <v>14</v>
-      </c>
-      <c r="G23" s="5">
-        <v>15</v>
-      </c>
-      <c r="H23" s="5">
-        <v>16</v>
-      </c>
+      <c r="AL22" s="6"/>
+    </row>
+    <row r="23" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23">
-        <v>38</v>
-      </c>
-      <c r="K23">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23">
         <v>37</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>36</v>
       </c>
-      <c r="M23">
+      <c r="O23" s="2">
         <v>35</v>
       </c>
-      <c r="N23" s="2">
-        <v>34</v>
-      </c>
-      <c r="O23">
-        <v>35</v>
-      </c>
-      <c r="P23" s="5">
+      <c r="P23">
         <v>36</v>
       </c>
-      <c r="Q23" s="1"/>
-      <c r="AD23" s="6"/>
+      <c r="Q23" s="5">
+        <v>37</v>
+      </c>
+      <c r="R23" s="1"/>
       <c r="AE23" s="6"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="6"/>
@@ -1345,249 +1366,275 @@
       <c r="AI23" s="6"/>
       <c r="AJ23" s="6"/>
       <c r="AK23" s="6"/>
-    </row>
-    <row r="24" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2">
+      <c r="AL23" s="6"/>
+    </row>
+    <row r="24" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="5">
+        <v>10</v>
+      </c>
+      <c r="D24" s="5">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5">
+        <v>13</v>
+      </c>
+      <c r="G24" s="5">
+        <v>14</v>
+      </c>
+      <c r="H24" s="5">
+        <v>15</v>
+      </c>
+      <c r="I24" s="5">
+        <v>16</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24">
+        <v>38</v>
+      </c>
+      <c r="L24">
+        <v>37</v>
+      </c>
+      <c r="M24">
+        <v>36</v>
+      </c>
+      <c r="N24">
+        <v>35</v>
+      </c>
+      <c r="O24" s="2">
+        <v>34</v>
+      </c>
+      <c r="P24">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="5">
+        <v>36</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+    </row>
+    <row r="25" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="2">
         <v>9</v>
       </c>
-      <c r="C24" s="2">
+      <c r="D25" s="2">
         <v>10</v>
       </c>
-      <c r="D24" s="2">
+      <c r="E25" s="2">
         <v>11</v>
       </c>
-      <c r="E24" s="2">
+      <c r="F25" s="2">
         <v>12</v>
       </c>
-      <c r="F24" s="2">
+      <c r="G25" s="2">
         <v>13</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H25" s="2">
         <v>14</v>
       </c>
-      <c r="H24" s="2">
+      <c r="I25" s="2">
         <v>15</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24">
+      <c r="J25" s="1"/>
+      <c r="K25">
         <v>37</v>
       </c>
-      <c r="K24">
+      <c r="L25">
         <v>36</v>
       </c>
-      <c r="L24">
+      <c r="M25">
         <v>35</v>
       </c>
-      <c r="M24">
+      <c r="N25">
         <v>34</v>
       </c>
-      <c r="N24" s="2">
+      <c r="O25" s="2">
         <v>33</v>
       </c>
-      <c r="O24">
+      <c r="P25">
         <v>34</v>
       </c>
-      <c r="P24" s="5">
+      <c r="Q25" s="5">
         <v>35</v>
       </c>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2">
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="2">
         <v>8</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25">
+      <c r="D26" s="1"/>
+      <c r="E26">
         <v>12</v>
       </c>
-      <c r="E25" s="5">
+      <c r="F26" s="5">
         <v>13</v>
       </c>
-      <c r="F25" s="5">
+      <c r="G26" s="5">
         <v>14</v>
       </c>
-      <c r="G25" s="5">
+      <c r="H26" s="5">
         <v>15</v>
       </c>
-      <c r="H25" s="2">
+      <c r="I26" s="2">
         <v>16</v>
       </c>
-      <c r="I25" s="1"/>
-      <c r="J25">
+      <c r="J26" s="1"/>
+      <c r="K26">
         <v>36</v>
       </c>
-      <c r="K25">
+      <c r="L26">
         <v>35</v>
       </c>
-      <c r="L25">
+      <c r="M26">
         <v>34</v>
       </c>
-      <c r="M25">
+      <c r="N26">
         <v>33</v>
       </c>
-      <c r="N25" s="2">
+      <c r="O26" s="2">
         <v>32</v>
       </c>
-      <c r="O25">
+      <c r="P26">
         <v>33</v>
       </c>
-      <c r="P25" s="5">
+      <c r="Q26" s="5">
         <v>34</v>
       </c>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2">
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>7</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="5">
+      <c r="B27" s="1"/>
+      <c r="C27" s="2">
+        <v>7</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="5">
         <v>14</v>
       </c>
-      <c r="F26" s="5">
+      <c r="G27" s="5">
         <v>15</v>
       </c>
-      <c r="G26" s="5">
+      <c r="H27" s="5">
         <v>16</v>
       </c>
-      <c r="H26" s="2">
+      <c r="I27" s="2">
         <v>17</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="5">
+      <c r="J27" s="1"/>
+      <c r="K27" s="5">
         <v>35</v>
       </c>
-      <c r="K26" s="5">
+      <c r="L27" s="5">
         <v>34</v>
       </c>
-      <c r="L26" s="5">
+      <c r="M27" s="5">
         <v>33</v>
       </c>
-      <c r="M26" s="5">
+      <c r="N27" s="5">
         <v>32</v>
       </c>
-      <c r="N26" s="2">
+      <c r="O27" s="2">
         <v>31</v>
       </c>
-      <c r="O26">
+      <c r="P27">
         <v>32</v>
       </c>
-      <c r="P26" s="5">
+      <c r="Q27" s="5">
         <v>33</v>
       </c>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2">
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="2">
         <v>6</v>
       </c>
-      <c r="C27" s="2">
+      <c r="D28" s="2">
         <v>5</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="5">
+      <c r="E28" s="1"/>
+      <c r="F28" s="5">
         <v>15</v>
       </c>
-      <c r="F27" s="5">
+      <c r="G28" s="5">
         <v>16</v>
       </c>
-      <c r="G27" s="5">
+      <c r="H28" s="5">
         <v>17</v>
       </c>
-      <c r="H27" s="2">
+      <c r="I28" s="2">
         <v>18</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="2">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="2">
         <v>30</v>
       </c>
-      <c r="O27">
+      <c r="P28">
         <v>31</v>
       </c>
-      <c r="P27" s="5">
+      <c r="Q28" s="5">
         <v>32</v>
       </c>
-      <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28">
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29">
         <v>5</v>
       </c>
-      <c r="C28" s="2">
+      <c r="D29" s="2">
         <v>4</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="5">
+      <c r="E29" s="1"/>
+      <c r="F29" s="5">
         <v>16</v>
       </c>
-      <c r="F28" s="5">
+      <c r="G29" s="5">
         <v>17</v>
       </c>
-      <c r="G28" s="5">
+      <c r="H29" s="5">
         <v>18</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I29" s="2">
         <v>19</v>
       </c>
-      <c r="I28" s="1"/>
-      <c r="J28">
-        <v>25</v>
-      </c>
-      <c r="K28">
-        <v>26</v>
-      </c>
-      <c r="L28">
-        <v>27</v>
-      </c>
-      <c r="M28">
-        <v>28</v>
-      </c>
-      <c r="N28" s="2">
-        <v>29</v>
-      </c>
-      <c r="O28">
-        <v>30</v>
-      </c>
-      <c r="P28" s="5">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" s="2">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="5">
-        <v>17</v>
-      </c>
-      <c r="F29" s="5">
-        <v>18</v>
-      </c>
-      <c r="G29" s="5">
-        <v>19</v>
-      </c>
-      <c r="H29" s="2">
-        <v>20</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29">
-        <v>24</v>
-      </c>
+      <c r="J29" s="1"/>
       <c r="K29">
         <v>25</v>
       </c>
@@ -1597,129 +1644,189 @@
       <c r="M29">
         <v>27</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29">
         <v>28</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="2">
         <v>29</v>
       </c>
-      <c r="P29" s="5">
+      <c r="P29">
         <v>30</v>
       </c>
-      <c r="Q29" s="1"/>
-    </row>
-    <row r="30" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30">
+      <c r="Q29" s="5">
+        <v>31</v>
+      </c>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
         <v>3</v>
       </c>
-      <c r="C30" s="2">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="5">
+      <c r="E30" s="1"/>
+      <c r="F30" s="5">
+        <v>17</v>
+      </c>
+      <c r="G30" s="5">
         <v>18</v>
       </c>
-      <c r="F30" s="5">
+      <c r="H30" s="5">
         <v>19</v>
       </c>
-      <c r="G30" s="5">
+      <c r="I30" s="2">
         <v>20</v>
       </c>
-      <c r="H30" s="2">
+      <c r="J30" s="1"/>
+      <c r="K30">
+        <v>24</v>
+      </c>
+      <c r="L30">
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <v>27</v>
+      </c>
+      <c r="O30" s="2">
+        <v>28</v>
+      </c>
+      <c r="P30">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="5">
+        <v>30</v>
+      </c>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="5">
+        <v>18</v>
+      </c>
+      <c r="G31" s="5">
+        <v>19</v>
+      </c>
+      <c r="H31" s="5">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2">
         <v>21</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J31" s="2">
         <v>22</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K31" s="2">
         <v>23</v>
       </c>
-      <c r="K30" s="2">
+      <c r="L31" s="2">
         <v>24</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M31" s="2">
         <v>25</v>
       </c>
-      <c r="M30" s="2">
+      <c r="N31" s="2">
         <v>26</v>
       </c>
-      <c r="N30" s="2">
+      <c r="O31" s="2">
         <v>27</v>
       </c>
-      <c r="O30">
+      <c r="P31">
         <v>28</v>
       </c>
-      <c r="P30" s="5">
+      <c r="Q31" s="5">
         <v>29</v>
       </c>
-      <c r="Q30" s="1"/>
-    </row>
-    <row r="31" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2">
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:38" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31">
+      <c r="E32" s="1"/>
+      <c r="F32">
         <v>19</v>
       </c>
-      <c r="F31">
+      <c r="G32">
         <v>20</v>
       </c>
-      <c r="G31">
+      <c r="H32">
         <v>21</v>
       </c>
-      <c r="H31">
+      <c r="I32">
         <v>22</v>
       </c>
-      <c r="I31">
+      <c r="J32">
         <v>23</v>
       </c>
-      <c r="J31">
+      <c r="K32">
         <v>24</v>
       </c>
-      <c r="K31">
+      <c r="L32">
         <v>25</v>
       </c>
-      <c r="L31">
+      <c r="M32">
         <v>26</v>
       </c>
-      <c r="M31">
+      <c r="N32">
         <v>27</v>
       </c>
-      <c r="N31">
+      <c r="O32">
         <v>28</v>
       </c>
-      <c r="O31">
+      <c r="P32">
         <v>29</v>
       </c>
-      <c r="P31" s="5">
+      <c r="Q32" s="5">
         <v>30</v>
       </c>
-      <c r="Q31" s="1"/>
-    </row>
-    <row r="32" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>13</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
